--- a/biology/Zoologie/Heliconius_atthis/Heliconius_atthis.xlsx
+++ b/biology/Zoologie/Heliconius_atthis/Heliconius_atthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius atthis est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,14 +523,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius atthis a été décrit par Doubleday en 1847 sous le nom d' Heliconia atthis.
-Synonyme : Heliconia bourcieri Becker, 1851[1].
-Forme
-Heliconius atthis f. gerstneriana Descimon &amp; Mast, 1971[1].
-Noms vernaculaires
-Heliconius atthis se nomme False Zebra Longwing ou Atthis Longwing en anglais
+Synonyme : Heliconia bourcieri Becker, 1851.
 </t>
         </is>
       </c>
@@ -544,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heliconius atthis ressemble à Tithorea pavoni. C'est un grand papillon aux ailes allongées et arrondies de couleur noire ornementé de points blancs et de taches blanches, en particulier aux ailes antérieures une ligne submarginale de points et des traits blanc partant de la base et aux ailes postérieures une ligne marginale de petits points, une autre qui lui est parallèle et une grande tache allongée partant de la base.
-</t>
+          <t>Forme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius atthis f. gerstneriana Descimon &amp; Mast, 1971.</t>
         </is>
       </c>
     </row>
@@ -575,48 +590,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius atthis se nomme False Zebra Longwing ou Atthis Longwing en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius atthis ressemble à Tithorea pavoni. C'est un grand papillon aux ailes allongées et arrondies de couleur noire ornementé de points blancs et de taches blanches, en particulier aux ailes antérieures une ligne submarginale de points et des traits blanc partant de la base et aux ailes postérieures une ligne marginale de petits points, une autre qui lui est parallèle et une grande tache allongée partant de la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, en particulier des Granadilla et des Passiflora dont Passiflora subpeltata[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, en particulier des Granadilla et des Passiflora dont Passiflora subpeltata.
 Sur les autres projets Wikimedia :
 Heliconius atthis, sur Wikimedia CommonsHeliconius atthis, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Heliconius_atthis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_atthis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Équateur[1].
-Biotope
-Heliconius atthis réside en forêt jusqu'à 1 900 m[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_atthis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius atthis réside en forêt jusqu'à 1 900 m.
 </t>
         </is>
       </c>
